--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anils\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996ED304-7A2D-4001-AB22-1FFEE3274459}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1760" windowWidth="14400" windowHeight="7270" tabRatio="843" activeTab="4" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="152">
-  <si>
-    <t>Week1/2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -41,24 +38,9 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>Week3</t>
-  </si>
-  <si>
-    <t>Mongo Integration</t>
-  </si>
-  <si>
-    <t>Loan History and Score Check</t>
-  </si>
-  <si>
     <t>Week4</t>
   </si>
   <si>
-    <t>Spring Email,Spring Batch</t>
-  </si>
-  <si>
-    <t>Email Sending</t>
-  </si>
-  <si>
     <t>Week5</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>Project Kick Start</t>
   </si>
   <si>
-    <t>BACKLOG</t>
-  </si>
-  <si>
     <t>STORY</t>
   </si>
   <si>
@@ -152,12 +131,6 @@
     <t>End points creation for Lb Connect</t>
   </si>
   <si>
-    <t>LBConnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Connection establishment between endpoints and Entities</t>
   </si>
   <si>
@@ -458,34 +431,70 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>score check service</t>
-  </si>
-  <si>
-    <t>9,10,</t>
-  </si>
-  <si>
-    <t>Spring batch to move the data</t>
-  </si>
-  <si>
-    <t>Integration with mongo to view the data</t>
-  </si>
-  <si>
-    <t>mongo view app for history</t>
-  </si>
-  <si>
     <t>UTR</t>
   </si>
   <si>
     <t>paid Amount</t>
   </si>
   <si>
-    <t>mongo environment creation :move closed loan transaction data to mongo via Spring Batch</t>
-  </si>
-  <si>
-    <t>Build simple REST Service which returns random number between 750-900</t>
-  </si>
-  <si>
     <t>Spring RestTemplate,scorecheck App,Fix lbconnect</t>
+  </si>
+  <si>
+    <t>create mongo db in docker using docker compose</t>
+  </si>
+  <si>
+    <t>mongo environment creation :Spring batch to move the data</t>
+  </si>
+  <si>
+    <t>Integration with mongo to view the data using end point</t>
+  </si>
+  <si>
+    <t>Week1 and 2</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Mongo DB on docker</t>
+  </si>
+  <si>
+    <t>Spring boot /batch integration with mongo and Mysql</t>
+  </si>
+  <si>
+    <t>Spring boot App to retrieve history from Monog</t>
+  </si>
+  <si>
+    <t>Put Approved loan details in Queue from Lb Connect</t>
+  </si>
+  <si>
+    <t>Set Up and update LB Connect to publish messages into Queue</t>
+  </si>
+  <si>
+    <t>Rabbit MQ / Active MQ on Docker</t>
+  </si>
+  <si>
+    <t>Read meesage from Queue then prepare Document(PDF)</t>
+  </si>
+  <si>
+    <t>Send email to Borrower using Spring Email</t>
+  </si>
+  <si>
+    <t>Week3 and 4</t>
+  </si>
+  <si>
+    <t>Mongo Integration,Spring Email,Spring Batch</t>
+  </si>
+  <si>
+    <t>Loan History and Email Sending</t>
+  </si>
+  <si>
+    <t>LBConnect,Score Check,</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -535,13 +544,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,109 +889,103 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -991,15 +995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.36328125" customWidth="1"/>
+    <col min="2" max="2" width="77.36328125" customWidth="1"/>
     <col min="3" max="3" width="88.453125" customWidth="1"/>
     <col min="4" max="4" width="51.90625" customWidth="1"/>
     <col min="5" max="5" width="40.1796875" customWidth="1"/>
@@ -1008,22 +1012,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1031,19 +1035,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1051,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1068,16 +1072,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1085,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1096,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1104,74 +1108,72 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>130</v>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>131</v>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,9 +1183,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1197,57 +1199,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>43</v>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1256,21 +1258,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1279,21 +1281,21 @@
         <v>2.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1302,21 +1304,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1325,15 +1327,130 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1357,277 +1474,277 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1000000</v>
@@ -1635,24 +1752,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1660,13 +1777,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>1000000</v>
@@ -1674,13 +1791,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1688,13 +1805,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1702,13 +1819,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -1716,13 +1833,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>100000</v>
@@ -1730,13 +1847,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -1751,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1763,53 +1880,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1835,263 +1952,263 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E29" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996ED304-7A2D-4001-AB22-1FFEE3274459}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40807A4-81A1-4A5C-9641-BC3E85F70C5F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Day Wise Updates" sheetId="2" r:id="rId2"/>
     <sheet name="JIRA" sheetId="3" r:id="rId3"/>
-    <sheet name="Project" sheetId="4" r:id="rId4"/>
-    <sheet name="Work Assigments" sheetId="5" r:id="rId5"/>
-    <sheet name="DTOS" sheetId="6" r:id="rId6"/>
+    <sheet name="Team" sheetId="7" r:id="rId4"/>
+    <sheet name="Project" sheetId="4" r:id="rId5"/>
+    <sheet name="Work Assigments" sheetId="5" r:id="rId6"/>
+    <sheet name="DTOS" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="160">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -458,12 +459,6 @@
     <t>Mongo DB on docker</t>
   </si>
   <si>
-    <t>Spring boot /batch integration with mongo and Mysql</t>
-  </si>
-  <si>
-    <t>Spring boot App to retrieve history from Monog</t>
-  </si>
-  <si>
     <t>Put Approved loan details in Queue from Lb Connect</t>
   </si>
   <si>
@@ -485,16 +480,37 @@
     <t>Mongo Integration,Spring Email,Spring Batch</t>
   </si>
   <si>
-    <t>Loan History and Email Sending</t>
-  </si>
-  <si>
     <t>LBConnect,Score Check,</t>
   </si>
   <si>
     <t>TO DO</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
+    <t>Spring boot App to retrieve history from Mongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Batch </t>
+  </si>
+  <si>
+    <t>How to connect 2 different Spring boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avinash </t>
+  </si>
+  <si>
+    <t>Facing Docker Issue</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Spring boot /batch integration with mongo and Mysql,  Cron Jobs</t>
   </si>
 </sst>
 </file>
@@ -544,14 +560,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,6 +601,14 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -889,7 +912,7 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -916,13 +939,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -998,7 +1021,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,12 +1149,15 @@
       <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1139,8 +1165,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>136</v>
+      <c r="B11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1148,15 +1174,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1185,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,11 +1365,11 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1360,27 +1383,33 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>143</v>
+      <c r="B10" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1388,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1402,10 +1431,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1416,10 +1445,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1430,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1444,10 +1473,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1459,6 +1488,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AF2234-0E77-4199-8D39-00D22010D965}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC0508-A877-4F09-8BCB-53AE342EF7A6}">
   <dimension ref="A2:D36"/>
   <sheetViews>
@@ -1864,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1934,19 +1997,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2825E8-90E6-4D8C-B171-BD8095ADDDC4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40807A4-81A1-4A5C-9641-BC3E85F70C5F}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F45215-A13C-415A-875C-F670D1C4EF6D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>Week4</t>
-  </si>
-  <si>
     <t>Week5</t>
   </si>
   <si>
@@ -510,7 +507,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Spring boot /batch integration with mongo and Mysql,  Cron Jobs</t>
+    <t>Spring boot integration with mongo and Mysql,  Cron Jobs</t>
+  </si>
+  <si>
+    <t>Spring batch integration</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -560,13 +563,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,6 +613,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -909,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
-  <dimension ref="A3:D10"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,13 +933,13 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -939,13 +947,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -955,60 +963,55 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,22 +1038,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1058,19 +1061,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1078,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1095,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1112,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1123,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1131,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1139,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1147,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1158,14 +1161,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1173,8 +1176,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>138</v>
+      <c r="B12" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1206,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,56 +1226,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1281,21 +1284,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1304,21 +1307,21 @@
         <v>2.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1327,21 +1330,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1350,91 +1353,95 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
+      <c r="B11" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1442,13 +1449,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1456,29 +1463,43 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
     </row>
@@ -1502,18 +1523,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1537,277 +1558,277 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1000000</v>
@@ -1815,24 +1836,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1840,13 +1861,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>1000000</v>
@@ -1854,13 +1875,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1868,13 +1889,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1882,13 +1903,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -1896,13 +1917,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>100000</v>
@@ -1910,13 +1931,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -1943,53 +1964,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2015,263 +2036,263 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F45215-A13C-415A-875C-F670D1C4EF6D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F5967EB-F67A-4AB6-B5FE-F7FA8AD05E95}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="157">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -492,18 +492,6 @@
     <t>How to connect 2 different Spring boot</t>
   </si>
   <si>
-    <t xml:space="preserve">Avinash </t>
-  </si>
-  <si>
-    <t>Facing Docker Issue</t>
-  </si>
-  <si>
-    <t>Rana</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -513,7 +501,7 @@
     <t>Spring batch integration</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
+    <t>Discuss Spring email</t>
   </si>
 </sst>
 </file>
@@ -563,14 +551,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,6 +604,14 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -953,7 +948,7 @@
         <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1023,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1176,13 +1171,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1211,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1368,7 +1366,7 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>140</v>
       </c>
       <c r="C8" t="s">
@@ -1386,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -1405,7 +1403,7 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>150</v>
       </c>
       <c r="C10" t="s">
@@ -1422,11 +1420,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>159</v>
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1510,34 +1511,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AF2234-0E77-4199-8D39-00D22010D965}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F5967EB-F67A-4AB6-B5FE-F7FA8AD05E95}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80341165-7121-45F5-9D34-27C2DA7B8D42}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -501,7 +501,10 @@
     <t>Spring batch integration</t>
   </si>
   <si>
-    <t>Discuss Spring email</t>
+    <t>Discuss Spring email and MQ</t>
+  </si>
+  <si>
+    <t>Complete email and lb connect interaction</t>
   </si>
 </sst>
 </file>
@@ -612,6 +615,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1018,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,13 +1186,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1209,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,6 +1442,9 @@
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1442,10 +1455,13 @@
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80341165-7121-45F5-9D34-27C2DA7B8D42}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECAC858-EDB1-4E8B-A149-1FE6406725EC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="158">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -587,6 +587,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -921,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,7 +1198,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1219,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,10 +1476,13 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1486,10 +1493,13 @@
         <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1505,6 +1515,9 @@
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1514,10 +1527,13 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECAC858-EDB1-4E8B-A149-1FE6406725EC}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF03330E-E325-43B7-B9E8-3050F61910CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Day Wise Updates" sheetId="2" r:id="rId2"/>
     <sheet name="JIRA" sheetId="3" r:id="rId3"/>
-    <sheet name="Team" sheetId="7" r:id="rId4"/>
-    <sheet name="Project" sheetId="4" r:id="rId5"/>
-    <sheet name="Work Assigments" sheetId="5" r:id="rId6"/>
-    <sheet name="DTOS" sheetId="6" r:id="rId7"/>
+    <sheet name="Project" sheetId="4" r:id="rId4"/>
+    <sheet name="Work Assigments" sheetId="5" r:id="rId5"/>
+    <sheet name="DTOS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -480,9 +479,6 @@
     <t>LBConnect,Score Check,</t>
   </si>
   <si>
-    <t>TO DO</t>
-  </si>
-  <si>
     <t>Spring boot App to retrieve history from Mongo</t>
   </si>
   <si>
@@ -505,6 +501,66 @@
   </si>
   <si>
     <t>Complete email and lb connect interaction</t>
+  </si>
+  <si>
+    <t>Discusss Micro service</t>
+  </si>
+  <si>
+    <t>Build Service Registry</t>
+  </si>
+  <si>
+    <t>Register lbconnect with eureka</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Implement Eureka</t>
+  </si>
+  <si>
+    <t>Implement Eureka on All Service</t>
+  </si>
+  <si>
+    <t>Implement API Gateway on All Services</t>
+  </si>
+  <si>
+    <t>Dockerization of lb connect</t>
+  </si>
+  <si>
+    <t>Implement docker on Lb Connect 2 Instances</t>
+  </si>
+  <si>
+    <t>Test All Services with All Spring cloud concepts</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Implement Spring Security on All Service</t>
+  </si>
+  <si>
+    <t>JWT Example</t>
+  </si>
+  <si>
+    <t>Kafka Example</t>
+  </si>
+  <si>
+    <t>Deployment on on AWS and test</t>
+  </si>
+  <si>
+    <t>Implement Swagger</t>
+  </si>
+  <si>
+    <t>Implment JUNIT on lb connect</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Learn Docker / Docker Hub</t>
+  </si>
+  <si>
+    <t>Circuit Breaker Example</t>
   </si>
 </sst>
 </file>
@@ -925,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -959,7 +1015,7 @@
         <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1191,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1199,18 +1255,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
     </row>
   </sheetData>
@@ -1221,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -1410,7 +1485,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1418,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -1430,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1438,7 +1513,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -1510,7 +1585,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1534,6 +1609,165 @@
       </c>
       <c r="E16" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1542,23 +1776,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AF2234-0E77-4199-8D39-00D22010D965}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC0508-A877-4F09-8BCB-53AE342EF7A6}">
   <dimension ref="A2:D36"/>
   <sheetViews>
@@ -1964,7 +2181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2034,7 +2251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2825E8-90E6-4D8C-B171-BD8095ADDDC4}">
   <dimension ref="A1:G30"/>
   <sheetViews>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF03330E-E325-43B7-B9E8-3050F61910CC}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240C74FA-1BCC-4E48-AE6D-F8511CEC2A05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="179">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Circuit Breaker Example</t>
+  </si>
+  <si>
+    <t>Revise docker,MS, Architecture,Spring Cloud</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -647,6 +653,10 @@
 </file>
 
 <file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1085,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,7 +1288,15 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1298,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1611,162 +1629,186 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>168</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>172</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>171</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>176</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>169</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>4</v>
       </c>
     </row>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240C74FA-1BCC-4E48-AE6D-F8511CEC2A05}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AA33E9-023D-434C-9AA9-2F90024A5A98}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="179">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Buffer</t>
   </si>
   <si>
-    <t>Docker/Docker Hub</t>
-  </si>
-  <si>
     <t>Week6</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>Register loanhistory and score check with Eureka</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,13 +1005,13 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1036,21 +1036,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -1058,32 +1058,29 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1095,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,22 +1107,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1133,19 +1130,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1153,16 +1150,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1170,16 +1167,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1187,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1198,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1206,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1214,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1222,10 +1219,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1233,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1241,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1249,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1265,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1273,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1281,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1289,18 +1286,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>159</v>
+      <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1316,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,56 +1342,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1389,21 +1400,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1412,21 +1423,21 @@
         <v>2.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1435,21 +1446,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1458,191 +1469,191 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1650,10 +1661,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1661,10 +1675,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1672,10 +1689,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1683,10 +1703,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1694,10 +1717,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1705,10 +1731,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1716,15 +1745,15 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1732,10 +1761,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1743,10 +1772,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1754,10 +1783,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1765,15 +1794,15 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1781,10 +1810,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1792,10 +1821,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1803,7 +1832,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1833,277 +1862,277 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1000000</v>
@@ -2111,24 +2140,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2136,13 +2165,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>1000000</v>
@@ -2150,13 +2179,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -2164,13 +2193,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2178,13 +2207,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -2192,13 +2221,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>100000</v>
@@ -2206,13 +2235,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -2239,53 +2268,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2311,263 +2340,263 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AA33E9-023D-434C-9AA9-2F90024A5A98}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86B1872-70E1-4784-868D-AE743E770ECD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="4" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="192">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -567,6 +567,45 @@
   </si>
   <si>
     <t>Register loanhistory and score check with Eureka</t>
+  </si>
+  <si>
+    <t>Spring Boot Data JPA --lbconnect</t>
+  </si>
+  <si>
+    <t>Spring Boot Mongo --scorecheck</t>
+  </si>
+  <si>
+    <t>Spring Batch --Batch</t>
+  </si>
+  <si>
+    <t>Spring boot Web --lb connect</t>
+  </si>
+  <si>
+    <t>Spring boot email --EMail</t>
+  </si>
+  <si>
+    <t>Spring Rest Template  --lbconnect/score-check</t>
+  </si>
+  <si>
+    <t>Eureka --put all the screenshots and notes</t>
+  </si>
+  <si>
+    <t>RDBMS vs NoSQL -- Research Item</t>
+  </si>
+  <si>
+    <t>Rertyable  - Research Iteam</t>
+  </si>
+  <si>
+    <t>completable future,executor service  - Research Iteam</t>
+  </si>
+  <si>
+    <t>CRON - Research Item</t>
+  </si>
+  <si>
+    <t>Spring-boot w/web</t>
+  </si>
+  <si>
+    <t>actuator --Research Item</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1309,12 +1348,15 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
   </sheetData>
@@ -1327,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,7 +1723,7 @@
         <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1695,7 +1737,7 @@
         <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1723,7 +1765,7 @@
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2254,15 +2296,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
     <col min="2" max="2" width="54.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2315,6 +2357,61 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anils\OneDrive\Desktop\Workspace\colts\lbconnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{AEC88E14-7DB9-4D36-9451-BBECC48D35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86B1872-70E1-4784-868D-AE743E770ECD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="4" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -602,10 +602,19 @@
     <t>CRON - Research Item</t>
   </si>
   <si>
-    <t>Spring-boot w/web</t>
-  </si>
-  <si>
     <t>actuator --Research Item</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Spring boot 1.x vs SpringBoot 2.x s SpringBoot 3.x</t>
+  </si>
+  <si>
+    <t>Open Item</t>
+  </si>
+  <si>
+    <t>Spring-boot w/web -8</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1083,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -1129,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1366,18 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
       <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2296,16 +2316,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44.7265625" customWidth="1"/>
     <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2360,8 +2381,8 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>190</v>
+      <c r="A13" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2388,7 +2409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -2396,20 +2417,26 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>185</v>
       </c>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anils\OneDrive\Desktop\Workspace\colts\lbconnect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482AF809-B4F6-46BA-B050-2F9BF2B9023A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="4" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="197">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -615,13 +615,19 @@
   </si>
   <si>
     <t>Spring-boot w/web -8</t>
+  </si>
+  <si>
+    <t>/@Query Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Iteam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +639,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,18 +675,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,7 +1059,7 @@
   <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1075,9 +1094,6 @@
       <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1088,6 +1104,9 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1140,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,7 +1385,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C21" s="2"/>
@@ -2318,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,7 +2405,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B14" t="s">
@@ -2440,9 +2459,19 @@
       <c r="A20" t="s">
         <v>185</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{067EDCA7-C90D-4123-8D94-9CA5E3B0CD25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482AF809-B4F6-46BA-B050-2F9BF2B9023A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9BCD12D-8A72-4389-9B79-57BACB53020D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="201">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -621,6 +621,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Research Iteam</t>
+  </si>
+  <si>
+    <t>Spring Boot Email --Discuss again</t>
+  </si>
+  <si>
+    <t>Git merge,git PR</t>
+  </si>
+  <si>
+    <t>Sprint ceremonies</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -724,6 +736,10 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1157,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,8 +1410,24 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>191</v>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1408,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,7 +1850,7 @@
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2335,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2413,7 +2445,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B15" t="s">
@@ -2464,6 +2496,21 @@
       </c>
       <c r="C20" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9BCD12D-8A72-4389-9B79-57BACB53020D}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A9F3F5-E015-4748-907F-3A45D72FFEB2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
@@ -563,9 +563,6 @@
     <t>Revise docker,MS, Architecture,Spring Cloud</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>Register loanhistory and score check with Eureka</t>
   </si>
   <si>
@@ -578,9 +575,6 @@
     <t>Spring Batch --Batch</t>
   </si>
   <si>
-    <t>Spring boot Web --lb connect</t>
-  </si>
-  <si>
     <t>Spring boot email --EMail</t>
   </si>
   <si>
@@ -623,9 +617,6 @@
     <t xml:space="preserve"> Research Iteam</t>
   </si>
   <si>
-    <t>Spring Boot Email --Discuss again</t>
-  </si>
-  <si>
     <t>Git merge,git PR</t>
   </si>
   <si>
@@ -633,6 +624,15 @@
   </si>
   <si>
     <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>Spring Cloud, PAN validation in lbconnect</t>
+  </si>
+  <si>
+    <t>Email,Batch,Docker</t>
+  </si>
+  <si>
+    <t>Spring Boot Exception Handling,Spring Batch,Docker</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -1426,8 +1426,24 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
+      <c r="B24" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1457,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,7 +1838,7 @@
         <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1850,7 +1866,7 @@
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2367,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,84 +2449,74 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2526,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2825E8-90E6-4D8C-B171-BD8095ADDDC4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A9F3F5-E015-4748-907F-3A45D72FFEB2}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558367A5-879B-40E3-8D3C-870009E520B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -626,13 +626,16 @@
     <t>IN PROGRESS</t>
   </si>
   <si>
-    <t>Spring Cloud, PAN validation in lbconnect</t>
-  </si>
-  <si>
     <t>Email,Batch,Docker</t>
   </si>
   <si>
-    <t>Spring Boot Exception Handling,Spring Batch,Docker</t>
+    <t>RDBMS vs NoSQL , CAP theorom</t>
+  </si>
+  <si>
+    <t>Spring Boot Exception Handling,Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring Cloud and load balancer</t>
   </si>
 </sst>
 </file>
@@ -740,6 +743,18 @@
 </file>
 
 <file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1078,15 +1093,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1173,22 +1188,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="77.36328125" customWidth="1"/>
-    <col min="3" max="3" width="88.453125" customWidth="1"/>
-    <col min="4" max="4" width="51.90625" customWidth="1"/>
-    <col min="5" max="5" width="40.1796875" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
+    <col min="3" max="3" width="88.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1228,7 +1243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,7 +1304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1324,7 +1339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1397,7 +1412,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1406,7 +1421,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1422,28 +1437,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>198</v>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1460,16 +1496,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="79.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="79.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1604,12 +1640,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1684,7 +1720,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1701,7 +1737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1735,7 +1771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1752,7 +1788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1769,12 +1805,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1802,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1844,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1858,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1872,12 +1908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1921,12 +1957,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1948,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1959,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1983,13 +2019,13 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2000,7 +2036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2044,7 +2080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2066,7 +2102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2077,7 +2113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2099,7 +2135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2110,12 +2146,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2126,7 +2162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2178,12 +2214,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2197,7 +2233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2211,7 +2247,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2225,7 +2261,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2253,7 +2289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2267,7 +2303,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2278,7 +2314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2292,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2306,7 +2342,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2320,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2334,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2362,7 +2398,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2386,17 +2422,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -2404,7 +2440,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2412,47 +2448,47 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>178</v>
       </c>
@@ -2460,7 +2496,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>179</v>
       </c>
@@ -2468,7 +2504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2476,7 +2512,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -2492,7 +2528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -2503,7 +2539,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -2514,7 +2550,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -2536,15 +2572,15 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -2555,7 +2591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2569,7 +2605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2583,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2597,7 +2633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2617,7 +2653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2631,7 +2667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2645,7 +2681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2653,7 +2689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2661,12 +2697,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2682,7 +2718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2690,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2698,7 +2734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2706,7 +2742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2714,7 +2750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2722,7 +2758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -2730,7 +2766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2746,7 +2782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2754,7 +2790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -2768,7 +2804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
         <v>124</v>
       </c>
@@ -2776,13 +2812,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>125</v>
       </c>
@@ -2790,17 +2826,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
         <v>129</v>
       </c>

--- a/lbconnect/Planning_file.xlsx
+++ b/lbconnect/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/lbconnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558367A5-879B-40E3-8D3C-870009E520B1}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A903F68-83B8-47CC-937D-885F8AAEE2DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="843" activeTab="2" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="206">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -533,12 +533,6 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Implement Spring Security on All Service</t>
-  </si>
-  <si>
-    <t>JWT Example</t>
-  </si>
-  <si>
     <t>Kafka Example</t>
   </si>
   <si>
@@ -623,19 +617,37 @@
     <t>Sprint ceremonies</t>
   </si>
   <si>
+    <t>Email,Batch,Docker</t>
+  </si>
+  <si>
+    <t>RDBMS vs NoSQL , CAP theorom</t>
+  </si>
+  <si>
+    <t>Spring Boot Exception Handling,Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring Cloud and load balancer</t>
+  </si>
+  <si>
+    <t>Spring Cloud Revision \ Quiz</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Security -Basic Auth - Material update of Spring boot, Data JPA, Mongo,Security </t>
+  </si>
+  <si>
+    <t>Spring Security using JWT,KeyCloack</t>
+  </si>
+  <si>
+    <t>Spring Secury Basic Auth Exampe</t>
+  </si>
+  <si>
+    <t>Implement Junit and KeyCloack in API gateway</t>
+  </si>
+  <si>
     <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>Email,Batch,Docker</t>
-  </si>
-  <si>
-    <t>RDBMS vs NoSQL , CAP theorom</t>
-  </si>
-  <si>
-    <t>Spring Boot Exception Handling,Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spring Cloud and load balancer</t>
   </si>
 </sst>
 </file>
@@ -755,6 +767,10 @@
 </file>
 
 <file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1089,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -1417,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -1442,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1450,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1466,20 +1482,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,7 +1878,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
@@ -1874,7 +1909,7 @@
         <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1902,7 +1937,7 @@
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1918,10 +1953,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,10 +1967,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,7 +1981,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1953,24 +1997,30 @@
       <c r="B29" t="s">
         <v>170</v>
       </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
       <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1978,7 +2028,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1989,7 +2042,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2001,6 +2057,9 @@
       </c>
       <c r="B34" t="s">
         <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2015,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC0508-A877-4F09-8BCB-53AE342EF7A6}">
   <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2422,7 +2481,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,74 +2544,74 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
